--- a/Templates/fecundity/7_template_fecundity.xlsx
+++ b/Templates/fecundity/7_template_fecundity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\fecundity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\fecundity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78377E2C-51B8-43A9-BACC-9FE0C0C2837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB0C7D-6B91-4C51-9790-5A356F46BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="198">
   <si>
     <t>Table_name</t>
   </si>
@@ -621,6 +621,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -1060,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C0933D-E5FC-4A10-B3D0-28C675A6D7ED}">
   <dimension ref="A1:CC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1218,7 @@
         <v>46</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>49</v>
@@ -1417,9 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>48</v>
